--- a/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
+++ b/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="459">
   <si>
     <t>数据库字段名</t>
   </si>
@@ -1226,10 +1226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1628,6 +1624,504 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库存调整单主表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_record</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">字符串枚举数据  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_ZFCMJ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(3000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仓库信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_warehouse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmweizhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_wmid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dptype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当前库存表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_Inventory</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_wmid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库存调整单子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_record_sub</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_cpbh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_shuliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_danwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库位信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_depot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常,锁定,弃用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpzhuangtai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核、已审核、作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbzr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rzhuangtai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单、出库单、入库单、调整单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2055,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2235,7 +2729,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -2830,7 +3324,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>271</v>
+        <v>375</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>117</v>
@@ -2982,7 +3476,7 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>182</v>
@@ -3009,27 +3503,27 @@
         <v>128</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -3142,7 +3636,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>155</v>
@@ -3159,7 +3653,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>156</v>
@@ -3216,7 +3710,7 @@
         <v>167</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>165</v>
@@ -3703,8 +4197,73 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
+    <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A132" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A132:F132"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="A109:F109"/>
     <mergeCell ref="A1:F1"/>
@@ -3723,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3739,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3769,13 +4328,13 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -3787,16 +4346,16 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
@@ -3805,27 +4364,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
         <v>270</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
         <v>303</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>304</v>
-      </c>
-      <c r="C6" t="s">
-        <v>305</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -3833,27 +4392,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" t="s">
         <v>306</v>
-      </c>
-      <c r="F7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
         <v>269</v>
@@ -3862,15 +4421,15 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -3879,18 +4438,18 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
         <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -3898,13 +4457,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -3912,27 +4471,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -3940,13 +4499,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -3954,13 +4513,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -3971,10 +4530,10 @@
         <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -3982,10 +4541,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -3996,10 +4555,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -4013,50 +4572,50 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" t="s">
         <v>327</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>328</v>
-      </c>
-      <c r="F20" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -4065,10 +4624,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4076,10 +4635,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
         <v>236</v>
@@ -4090,10 +4649,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -4104,7 +4663,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
         <v>264</v>
@@ -4118,13 +4677,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>31</v>
@@ -4132,10 +4691,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4146,7 +4705,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s">
         <v>265</v>
@@ -4160,10 +4719,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
         <v>262</v>
@@ -4174,7 +4733,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s">
         <v>266</v>
@@ -4188,13 +4747,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
@@ -4202,13 +4761,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
@@ -4216,13 +4775,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
@@ -4233,7 +4792,7 @@
         <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
@@ -4290,14 +4849,644 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="71.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" t="s">
+        <v>368</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B30" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" t="s">
+        <v>439</v>
+      </c>
+      <c r="C51" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" t="s">
+        <v>441</v>
+      </c>
+      <c r="C53" t="s">
+        <v>444</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" t="s">
+        <v>442</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A46:F46"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
+++ b/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="465">
   <si>
     <t>数据库字段名</t>
   </si>
@@ -1691,6 +1691,407 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>隶属单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">字符串枚举数据  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_ZFCMJ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(3000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仓库信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_warehouse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmweizhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_wmid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dptype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当前库存表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_Inventory</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_wmid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库存调整单子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_record_sub</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_cpbh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_shuliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_danwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库位信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_depot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常,锁定,弃用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpzhuangtai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbzr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单、出库单、入库单、调整单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">库存调整单主表  </t>
     </r>
@@ -1716,15 +2117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隶属单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subid</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbeizhu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1732,68 +2129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出库库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整品号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">字符串枚举数据  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_ZFCMJ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YSTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(3000)</t>
+    <t>nvarchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1801,327 +2141,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">仓库信息表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_warehouse</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmweizhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getdate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_wmid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dptype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">当前库存表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_Inventory</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_wmid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_dpid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kucun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>danwei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">库存调整单子表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_record_sub</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_chu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_cpbh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_shuliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_danwei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">库位信息表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_depot</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常,锁定,弃用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpzhuangtai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核、已审核、作废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbzr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rshr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rzhuangtai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调拨单、出库单、入库单、调整单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmname</t>
+    <t>未审核、已审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4199,7 +4223,7 @@
     </row>
     <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -4232,7 +4256,7 @@
         <v>222</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
@@ -4242,7 +4266,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -4250,13 +4274,13 @@
         <v>223</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4851,8 +4875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4867,7 +4891,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4897,7 +4921,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>200</v>
@@ -4915,10 +4939,10 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -4931,10 +4955,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>368</v>
@@ -4945,13 +4969,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -4959,13 +4983,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>372</v>
@@ -4973,24 +4997,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5020,10 +5044,10 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -5038,10 +5062,10 @@
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -5054,10 +5078,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
         <v>368</v>
@@ -5068,10 +5092,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
         <v>369</v>
@@ -5082,24 +5106,24 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" t="s">
         <v>449</v>
       </c>
-      <c r="B20" t="s">
-        <v>450</v>
-      </c>
       <c r="C20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -5129,13 +5153,13 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>370</v>
@@ -5147,10 +5171,10 @@
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -5163,10 +5187,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C27" t="s">
         <v>368</v>
@@ -5177,7 +5201,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B28" t="s">
         <v>381</v>
@@ -5194,7 +5218,7 @@
         <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C29" t="s">
         <v>297</v>
@@ -5205,10 +5229,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C30" t="s">
         <v>376</v>
@@ -5219,7 +5243,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5249,10 +5273,10 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>367</v>
@@ -5267,7 +5291,7 @@
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>379</v>
@@ -5280,12 +5304,12 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B39" t="s">
         <v>380</v>
@@ -5299,13 +5323,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>6</v>
@@ -5313,38 +5337,52 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F41" t="s">
-        <v>452</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B42" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>378</v>
+        <v>461</v>
+      </c>
+      <c r="F42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B43" t="s">
+        <v>458</v>
+      </c>
+      <c r="C43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -5377,10 +5415,10 @@
         <v>373</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>370</v>
@@ -5392,13 +5430,13 @@
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>371</v>
@@ -5408,10 +5446,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -5422,10 +5460,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
         <v>368</v>
@@ -5436,10 +5474,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -5450,13 +5488,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>6</v>
@@ -5464,10 +5502,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>

--- a/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
+++ b/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="463">
   <si>
     <t>数据库字段名</t>
   </si>
@@ -675,18 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plaiyua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdanwei_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdanwei_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pdanwei_gongshi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1691,7 +1679,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隶属单据</t>
+    <r>
+      <t xml:space="preserve">库存调整单主表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_record</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1708,22 +1717,6 @@
   </si>
   <si>
     <t>出库库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整品号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1902,10 +1895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i_wmid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i_dpid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1923,10 +1912,6 @@
   </si>
   <si>
     <t>识别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2092,31 +2077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">库存调整单主表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_record</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2146,6 +2106,38 @@
   </si>
   <si>
     <t>未审核、已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaiyua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdanwei_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdanwei_b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2575,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2753,7 +2745,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -3348,7 +3340,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>117</v>
@@ -3470,7 +3462,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3500,10 +3492,10 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>145</v>
@@ -3521,38 +3513,38 @@
         <v>147</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>123</v>
@@ -3565,12 +3557,12 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>124</v>
@@ -3583,7 +3575,7 @@
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -3601,7 +3593,7 @@
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -3624,7 +3616,7 @@
     </row>
     <row r="83" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>132</v>
@@ -3642,10 +3634,10 @@
     </row>
     <row r="84" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>460</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>7</v>
@@ -3655,15 +3647,15 @@
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>461</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>137</v>
@@ -3677,10 +3669,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>7</v>
@@ -3694,27 +3686,27 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>46</v>
@@ -3723,30 +3715,30 @@
         <v>125</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E89" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -3754,10 +3746,10 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>31</v>
@@ -3821,7 +3813,7 @@
     </row>
     <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3851,28 +3843,28 @@
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>7</v>
@@ -3882,33 +3874,33 @@
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>7</v>
@@ -3918,29 +3910,29 @@
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -3950,7 +3942,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>0</v>
@@ -3970,10 +3962,10 @@
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -3983,183 +3975,183 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C113" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F114" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" t="s">
         <v>248</v>
-      </c>
-      <c r="B115" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" t="s">
-        <v>245</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F115" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4189,41 +4181,41 @@
     </row>
     <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
     <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -4253,10 +4245,10 @@
     </row>
     <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
@@ -4266,21 +4258,21 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4322,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4352,63 +4344,63 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -4416,44 +4408,44 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -4462,18 +4454,18 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -4481,13 +4473,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -4495,27 +4487,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -4523,13 +4515,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -4537,13 +4529,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -4551,13 +4543,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -4565,10 +4557,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -4579,10 +4571,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -4596,50 +4588,50 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" t="s">
-        <v>327</v>
-      </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -4648,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4659,38 +4651,38 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -4701,13 +4693,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>31</v>
@@ -4715,10 +4707,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4729,13 +4721,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
@@ -4743,13 +4735,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
@@ -4757,13 +4749,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
@@ -4771,13 +4763,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
@@ -4785,13 +4777,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
@@ -4799,13 +4791,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
@@ -4813,10 +4805,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
@@ -4873,10 +4865,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4891,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4921,47 +4913,47 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -4969,13 +4961,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -4983,38 +4975,38 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5044,47 +5036,47 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -5092,13 +5084,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -5106,24 +5098,24 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -5153,47 +5145,45 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" t="s">
+        <v>365</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B27" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -5201,121 +5191,121 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="B28" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>6</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C29" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B30" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
+      <c r="C38" t="s">
+        <v>363</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>453</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="C39" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>6</v>
@@ -5323,194 +5313,180 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>451</v>
+      </c>
+      <c r="F41" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B42" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F42" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>457</v>
-      </c>
-      <c r="B43" t="s">
-        <v>458</v>
-      </c>
-      <c r="C43" t="s">
-        <v>460</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>391</v>
+      <c r="D48" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="B50" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>458</v>
+      </c>
+      <c r="B52" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>388</v>
-      </c>
-      <c r="B52" t="s">
-        <v>439</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>459</v>
+      </c>
+      <c r="B53" t="s">
+        <v>432</v>
+      </c>
+      <c r="C53" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>389</v>
-      </c>
-      <c r="B53" t="s">
-        <v>440</v>
-      </c>
-      <c r="C53" t="s">
-        <v>443</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>390</v>
-      </c>
-      <c r="B54" t="s">
-        <v>441</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5519,8 +5495,8 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
+++ b/MES系统的基础功能和可拓展架构文档/基础表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="基础数据" sheetId="1" r:id="rId1"/>
@@ -856,14 +856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工序标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工序说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">工序流程主表  </t>
     </r>
@@ -1035,18 +1027,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工序入料品号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一个子表，记录这个工序需要投入的材料的品号。暂时先用逗号隔开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工序产出品号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下一个节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,10 +1067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ws_gx_chu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ws_gx_mod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1123,10 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>节点标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动生成, 流程编号+节点标记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,6 +1211,884 @@
   </si>
   <si>
     <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhsj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhzl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhzldw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhfl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhfldw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beizhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chucang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chejian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongxu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caozuoyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhijianyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shebei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beiyong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间区间，或者“全天”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入仓编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhrq_begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是日计划，这个与结束日期相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhrq_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划产生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划主量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备组件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下达状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效,作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核,已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下达,未下达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未下达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt_shenhe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品单位A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品单位B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt_jihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhcssj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt_xiada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划主量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划辅量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pguige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库存调整单主表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_record</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">字符串枚举数据  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_ZFCMJ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(3000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仓库信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_warehouse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmweizhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_wmid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dptype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当前库存表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_Inventory</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库存调整单子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_record_sub</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_cpbh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_shuliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_danwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">库位信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_C_depot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常,锁定,弃用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpzhuangtai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbzr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单、出库单、入库单、调整单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbeizhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rzhuangtai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核、已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaiyua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdanwei_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdanwei_b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1263,881 +2117,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>formnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhsj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhzl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhzldw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhfl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhfldw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bzr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beizhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chucang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chejian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gongxu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caozuoyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhijianyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shebei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beiyong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getdate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间区间，或者“全天”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入仓编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhrq_begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是日计划，这个与结束日期相同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhrq_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划产生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划主量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出仓编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工序编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报工员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质检员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备组件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下达状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效,作废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核,已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已下达,未下达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未下达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt_shenhe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpmc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpgg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品单位A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品单位B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt_jihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jhcssj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt_xiada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划主量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划辅量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pguige</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">库存调整单主表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_record</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">字符串枚举数据  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_ZFCMJ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YSTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(3000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">仓库信息表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_warehouse</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmweizhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getdate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_wmid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dptype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">当前库存表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_Inventory</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_dpid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kucun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>danwei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">库存调整单子表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_record_sub</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_chu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_cpbh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_shuliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_danwei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">库位信息表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_C_depot</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常,锁定,弃用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpzhuangtai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbzr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rshr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调拨单、出库单、入库单、调整单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbeizhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rzhuangtai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核、已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隶属单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整品号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plaiyua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdanwei_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdanwei_b</t>
+    <t>工序标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序入料品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws_gx_chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序产出品号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -3340,7 +3340,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>117</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>179</v>
@@ -3519,27 +3519,27 @@
         <v>128</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -3637,7 +3637,7 @@
         <v>175</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>7</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>137</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
         <v>164</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>162</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3846,10 +3846,10 @@
         <v>185</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>191</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>7</v>
@@ -3915,24 +3915,24 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -3965,7 +3965,7 @@
         <v>192</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -3983,10 +3983,10 @@
         <v>187</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -4001,157 +4001,157 @@
         <v>193</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>457</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F114" t="s">
         <v>241</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F114" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C115" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115" t="s">
         <v>242</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F115" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
-        <v>225</v>
+        <v>461</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>462</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4181,41 +4181,41 @@
     </row>
     <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
     <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
@@ -4258,21 +4258,21 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4299,7 +4299,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4314,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>274</v>
+        <v>456</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4344,63 +4344,63 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -4408,44 +4408,44 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -4454,18 +4454,18 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -4473,13 +4473,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -4487,27 +4487,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -4515,13 +4515,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -4529,13 +4529,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -4543,13 +4543,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -4571,10 +4571,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -4588,50 +4588,50 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -4640,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4651,38 +4651,38 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -4693,13 +4693,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>31</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4721,13 +4721,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
@@ -4735,13 +4735,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
@@ -4749,13 +4749,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
@@ -4763,13 +4763,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
@@ -4791,13 +4791,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
@@ -4867,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -4883,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4913,47 +4913,47 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -4975,38 +4975,38 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5036,47 +5036,47 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -5098,24 +5098,24 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -5145,31 +5145,31 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -5177,13 +5177,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -5191,35 +5191,35 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5249,49 +5249,49 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C38" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>6</v>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C39" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>6</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B40" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
@@ -5327,38 +5327,38 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B41" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C41" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F41" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B42" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -5388,44 +5388,44 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C50" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>6</v>
@@ -5450,27 +5450,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>6</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
